--- a/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
+++ b/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
+++ b/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
+++ b/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="2">
@@ -960,7 +960,7 @@
       </c>
       <c r="C28" s="20" t="n"/>
       <c r="D28" s="12" t="n">
-        <v>297.532</v>
+        <v>636.951</v>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
       </c>
       <c r="C29" s="20" t="n"/>
       <c r="D29" s="12" t="n">
-        <v>311.739</v>
+        <v>667.362</v>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C30" s="20" t="n"/>
       <c r="D30" s="12" t="n">
-        <v>502.246</v>
+        <v>1075.196</v>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C31" s="20" t="n"/>
       <c r="D31" s="12" t="n">
-        <v>713.183</v>
+        <v>1526.765</v>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C32" s="20" t="n"/>
       <c r="D32" s="12" t="n">
-        <v>996.494</v>
+        <v>2133.272</v>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="12" t="n">
-        <v>1278.921</v>
+        <v>2737.882</v>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C34" s="22" t="n"/>
       <c r="D34" s="12" t="n">
-        <v>1998.314</v>
+        <v>4277.943</v>
       </c>
       <c r="E34" s="7" t="inlineStr">
         <is>
@@ -1110,19 +1110,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
+++ b/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
+++ b/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="2">
@@ -960,7 +960,7 @@
       </c>
       <c r="C28" s="20" t="n"/>
       <c r="D28" s="12" t="n">
-        <v>636.951</v>
+        <v>297.532</v>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
       </c>
       <c r="C29" s="20" t="n"/>
       <c r="D29" s="12" t="n">
-        <v>667.362</v>
+        <v>311.739</v>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C30" s="20" t="n"/>
       <c r="D30" s="12" t="n">
-        <v>1075.196</v>
+        <v>502.246</v>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C31" s="20" t="n"/>
       <c r="D31" s="12" t="n">
-        <v>1526.765</v>
+        <v>713.183</v>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C32" s="20" t="n"/>
       <c r="D32" s="12" t="n">
-        <v>2133.272</v>
+        <v>996.494</v>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="12" t="n">
-        <v>2737.882</v>
+        <v>1278.921</v>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C34" s="22" t="n"/>
       <c r="D34" s="12" t="n">
-        <v>4277.943</v>
+        <v>1998.314</v>
       </c>
       <c r="E34" s="7" t="inlineStr">
         <is>
@@ -1110,19 +1110,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
+++ b/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">
@@ -1110,19 +1110,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
+++ b/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">
@@ -1110,19 +1110,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
+++ b/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">
@@ -1110,19 +1110,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
+++ b/server/LISTAS/mi/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="2">
@@ -960,7 +960,7 @@
       </c>
       <c r="C28" s="20" t="n"/>
       <c r="D28" s="12" t="n">
-        <v>297.532</v>
+        <v>700.646</v>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
       </c>
       <c r="C29" s="20" t="n"/>
       <c r="D29" s="12" t="n">
-        <v>311.739</v>
+        <v>734.098</v>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C30" s="20" t="n"/>
       <c r="D30" s="12" t="n">
-        <v>502.246</v>
+        <v>1182.716</v>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C31" s="20" t="n"/>
       <c r="D31" s="12" t="n">
-        <v>713.183</v>
+        <v>1679.442</v>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C32" s="20" t="n"/>
       <c r="D32" s="12" t="n">
-        <v>996.494</v>
+        <v>2346.599</v>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="12" t="n">
-        <v>1278.921</v>
+        <v>3011.67</v>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C34" s="22" t="n"/>
       <c r="D34" s="12" t="n">
-        <v>1998.314</v>
+        <v>4705.737</v>
       </c>
       <c r="E34" s="7" t="inlineStr">
         <is>
@@ -1110,19 +1110,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
